--- a/locators/LoginPage.xlsx
+++ b/locators/LoginPage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutoTest\AppSevenPyest\locators\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05E4C7-F231-4AE2-9FC2-D031FE7C0EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>页面元素定位器</t>
   </si>
@@ -47,41 +53,65 @@
   </si>
   <si>
     <t>登录</t>
-  </si>
-  <si>
-    <t>//*[@id="u"]</t>
-  </si>
-  <si>
-    <t>//*[@id="login_button"]</t>
-  </si>
-  <si>
-    <t>login_frame</t>
-  </si>
-  <si>
-    <t>login_frame</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="login_frame"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录frame</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="p"]</t>
+    <t>UiSelector().resourceId("userName")</t>
+  </si>
+  <si>
+    <t>UiSelector().resourceId("password")</t>
+  </si>
+  <si>
+    <t>UiSelector().resourceId("submit")</t>
+  </si>
+  <si>
+    <t>UiSelector().resourceId("android:id/button1")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reminder</t>
+  </si>
+  <si>
+    <t>下次提醒</t>
+  </si>
+  <si>
+    <t>UiSelector().resourceId("com.android.permissioncontroller:id/continue_button")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权页-&gt;继续按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue_btn</t>
+  </si>
+  <si>
+    <t>UiSelector().resourceId("android:id/button1")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm_btn</t>
+  </si>
+  <si>
+    <t>更新提示-&gt;确定按钮</t>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +180,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,148 +445,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="54.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="73" style="1" customWidth="1"/>
     <col min="9" max="9" width="53" style="1" customWidth="1"/>
-    <col min="10" max="10" width="72.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="72.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="53" style="1" customWidth="1"/>
-    <col min="12" max="12" width="73.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="53.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="53.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="41.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="44.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="42.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="73.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="53.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="53.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="41.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="44.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="42.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="45" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="39" customHeight="1">
+    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32.25" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.25" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="39" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>